--- a/UAT.xlsx
+++ b/UAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurynas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurynas\source\repos\NasdaqBaltic\NasdaqBaltic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{C56DAB70-0A0A-4BE5-AA46-CE9ED18D0E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAAAF72-A58F-4C5B-9E60-72545A3C3D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapas1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="128">
   <si>
     <t>Projekto Pavadinimas:</t>
   </si>
@@ -415,11 +415,45 @@
   <si>
     <t>Birža nedirba, informacinis ženklas atsiradimas (Sekmadienis)</t>
   </si>
+  <si>
+    <t>NB21</t>
+  </si>
+  <si>
+    <t>NB22</t>
+  </si>
+  <si>
+    <t>Atidaryti akcijos kainos diagrama</t>
+  </si>
+  <si>
+    <t>Paspausti"Prekiauti"
+Du kartu paspausti kairį pelės mygtuką ant norimos akcijos.
+Paspausti ant skilties "Diagrama"</t>
+  </si>
+  <si>
+    <t>Atvaizduojama akcijos kainos diagrama.</t>
+  </si>
+  <si>
+    <t>Atvaizduota akcijos kainos diagrama.</t>
+  </si>
+  <si>
+    <t>Atidaryti akcijos ataskaita</t>
+  </si>
+  <si>
+    <t>Paspausti"Prekiauti"
+Du kartu paspausti kairį pelės mygtuką ant norimos akcijos.
+Paspausti ant mygtuko "Ataskaita"</t>
+  </si>
+  <si>
+    <t>Bus atidaryta atsakaita.</t>
+  </si>
+  <si>
+    <t>Atidaryta ataskaita</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,45 +590,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -620,6 +615,45 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,17 +815,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Lentelė6" displayName="Lentelė6" ref="B7:I27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B7:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Lentelė6" displayName="Lentelė6" ref="B7:I29" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B7:I29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Nr." dataDxfId="7"/>
-    <tableColumn id="2" name="Aprašymas" dataDxfId="6"/>
-    <tableColumn id="4" name="Pradinės Sąlygos/Duomenys" dataDxfId="5"/>
-    <tableColumn id="7" name="Vykdymo žingsniai" dataDxfId="4"/>
-    <tableColumn id="10" name="Laukiamas Rezultatas" dataDxfId="3"/>
-    <tableColumn id="12" name="Statusas" dataDxfId="2"/>
-    <tableColumn id="14" name="Gautas Rezultatas" dataDxfId="1"/>
-    <tableColumn id="17" name="Testavimo data" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nr." dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Aprašymas" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Pradinės Sąlygos/Duomenys" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Vykdymo žingsniai" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Laukiamas Rezultatas" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Statusas" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Gautas Rezultatas" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Testavimo data" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1093,11 +1127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,596 +1157,648 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9">
-        <v>44206</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="21">
+        <v>44206</v>
+      </c>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12">
-        <v>44206</v>
-      </c>
-      <c r="E4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="22">
+        <v>44206</v>
+      </c>
+      <c r="E4" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="7">
         <v>44206</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="7">
         <v>44206</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="18" t="s">
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="18" t="s">
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="18" t="s">
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="18" t="s">
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="18" t="s">
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="18" t="s">
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="18" t="s">
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="18" t="s">
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="18" t="s">
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="10">
         <v>44206</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="18" t="s">
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="10">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="10">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="10">
         <v>44206</v>
       </c>
     </row>
